--- a/StressTests/RedisTests/single-node/resultats_tests.xlsx
+++ b/StressTests/RedisTests/single-node/resultats_tests.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Redis_Single_Filter" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Redis_Single_Service" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +529,120 @@
         <v>300.27</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Single-node</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>310.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Middleware</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Clients</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Num Tasks</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Temps Total (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Single-node</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>950.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StressTests/RedisTests/single-node/resultats_tests.xlsx
+++ b/StressTests/RedisTests/single-node/resultats_tests.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Redis_Single_Filter" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Redis_Single_Service" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,7 +26,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,10 +48,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -63,7 +73,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,13 +436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -491,71 +501,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F2" t="n">
-        <v>1.17</v>
+        <v>3.18</v>
       </c>
       <c r="G2" t="n">
-        <v>256.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>InsultFilter</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Redis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Single-node</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>300.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>InsultFilter</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Redis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Single-node</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>310.06</v>
+        <v>314.28</v>
       </c>
     </row>
   </sheetData>
@@ -572,10 +524,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -640,7 +592,7 @@
         <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>950.27</v>
+        <v>951.39</v>
       </c>
     </row>
   </sheetData>
